--- a/SALT/kai_test.xlsx
+++ b/SALT/kai_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA7AF2D-CA6B-3240-9787-B251F777E1EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A6D0A9-205B-BF46-BC34-D05D8616B4F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="4560" windowWidth="25980" windowHeight="16440" xr2:uid="{B5DC76DA-EB8A-D04C-A533-CBDA1137555B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="46">
   <si>
     <t>kai test</t>
   </si>
@@ -135,7 +135,34 @@
     <t>vasp5</t>
   </si>
   <si>
-    <t>quits?</t>
+    <t>F</t>
+  </si>
+  <si>
+    <t>NBANDS=1500</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>NSIM=1</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>NSIM=8</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>ALGO=F</t>
+  </si>
+  <si>
+    <t>E8</t>
   </si>
 </sst>
 </file>
@@ -498,25 +525,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341B5BF5-C9EC-8C4C-B4D4-90635B8544FF}">
-  <dimension ref="B2:J38"/>
+  <dimension ref="B2:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:14">
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:14">
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:14">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -532,14 +559,23 @@
       <c r="G4" t="s">
         <v>9</v>
       </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
       <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" t="s">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
+      <c r="N4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:14">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -558,14 +594,23 @@
       <c r="G5">
         <v>100</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="M5" t="s">
         <v>6</v>
       </c>
-      <c r="J5" t="s">
+      <c r="N5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:14">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -584,14 +629,23 @@
       <c r="G6">
         <v>14.2</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6">
+        <v>12.4</v>
+      </c>
+      <c r="I6">
+        <v>76.2</v>
+      </c>
+      <c r="J6">
+        <v>71.7</v>
+      </c>
+      <c r="M6" t="s">
         <v>7</v>
       </c>
-      <c r="J6" t="s">
+      <c r="N6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:14">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -600,7 +654,7 @@
         <v>7851.7999999999993</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:G7" si="0">D5*D6</f>
+        <f t="shared" ref="D7:J7" si="0">D5*D6</f>
         <v>1780</v>
       </c>
       <c r="E7" s="1">
@@ -615,14 +669,27 @@
         <f t="shared" si="0"/>
         <v>1420</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>1240</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>7620</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>7170</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="M7" t="s">
         <v>8</v>
       </c>
-      <c r="J7" t="s">
+      <c r="N7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:14">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -632,14 +699,23 @@
       <c r="G8">
         <v>5756</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H8">
+        <v>6056</v>
+      </c>
+      <c r="I8">
+        <v>20733</v>
+      </c>
+      <c r="J8">
+        <v>19829</v>
+      </c>
+      <c r="M8" t="s">
         <v>9</v>
       </c>
-      <c r="J8" t="s">
+      <c r="N8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:14">
       <c r="B9" t="s">
         <v>29</v>
       </c>
@@ -651,8 +727,34 @@
         <f>G8/G5</f>
         <v>57.56</v>
       </c>
-    </row>
-    <row r="11" spans="2:10">
+      <c r="H9">
+        <f>H8/H5</f>
+        <v>60.56</v>
+      </c>
+      <c r="I9">
+        <f>I8/I5</f>
+        <v>207.33</v>
+      </c>
+      <c r="J9">
+        <f>J8/J5</f>
+        <v>198.29</v>
+      </c>
+      <c r="M9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="M10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -671,8 +773,18 @@
       <c r="G11" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -691,8 +803,12 @@
       <c r="G12" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:14">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -711,8 +827,12 @@
       <c r="G13" s="2">
         <v>13.85</v>
       </c>
-    </row>
-    <row r="14" spans="2:10">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:14">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -736,8 +856,12 @@
         <f t="shared" ref="G14" si="4">G12*G13</f>
         <v>1385</v>
       </c>
-    </row>
-    <row r="15" spans="2:10">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="2:14">
       <c r="B15" t="s">
         <v>10</v>
       </c>
@@ -747,8 +871,12 @@
       <c r="G15" s="2">
         <v>5483</v>
       </c>
-    </row>
-    <row r="16" spans="2:10">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:14">
       <c r="B16" t="s">
         <v>29</v>
       </c>
@@ -760,8 +888,12 @@
         <f>G15/G12</f>
         <v>54.83</v>
       </c>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="18" spans="2:14">
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -777,11 +909,11 @@
       <c r="F18" t="s">
         <v>22</v>
       </c>
-      <c r="I18" t="s">
+      <c r="M18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:14">
       <c r="B19" t="s">
         <v>2</v>
       </c>
@@ -797,14 +929,14 @@
       <c r="F19">
         <v>100</v>
       </c>
-      <c r="I19" t="s">
+      <c r="M19" t="s">
         <v>17</v>
       </c>
-      <c r="J19" t="s">
+      <c r="N19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:14">
       <c r="B20" t="s">
         <v>3</v>
       </c>
@@ -820,14 +952,14 @@
       <c r="F20">
         <v>18.8</v>
       </c>
-      <c r="I20" t="s">
+      <c r="M20" t="s">
         <v>18</v>
       </c>
-      <c r="J20" t="s">
+      <c r="N20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:14">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -847,14 +979,14 @@
         <f t="shared" si="6"/>
         <v>1880</v>
       </c>
-      <c r="I21" t="s">
+      <c r="M21" t="s">
         <v>19</v>
       </c>
-      <c r="J21" t="s">
+      <c r="N21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:14">
       <c r="B22" t="s">
         <v>10</v>
       </c>
@@ -870,14 +1002,14 @@
       <c r="F22">
         <v>6633</v>
       </c>
-      <c r="I22" t="s">
+      <c r="M22" t="s">
         <v>22</v>
       </c>
-      <c r="J22" t="s">
+      <c r="N22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:14">
       <c r="B23" t="s">
         <v>29</v>
       </c>
@@ -898,7 +1030,7 @@
         <v>66.33</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:14">
       <c r="B25" t="s">
         <v>24</v>
       </c>
@@ -917,11 +1049,20 @@
       <c r="G25" t="s">
         <v>30</v>
       </c>
+      <c r="H25" t="s">
+        <v>42</v>
+      </c>
       <c r="I25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" t="s">
+        <v>45</v>
+      </c>
+      <c r="M25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:14">
       <c r="B26" t="s">
         <v>2</v>
       </c>
@@ -940,14 +1081,24 @@
       <c r="G26" s="2">
         <v>100</v>
       </c>
-      <c r="I26" t="s">
+      <c r="H26" s="2">
+        <v>100</v>
+      </c>
+      <c r="I26" s="2">
+        <v>100</v>
+      </c>
+      <c r="J26" s="2">
+        <v>100</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="M26" t="s">
         <v>25</v>
       </c>
-      <c r="J26" t="s">
+      <c r="N26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:14">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -966,14 +1117,24 @@
       <c r="G27" s="2">
         <v>14.1</v>
       </c>
-      <c r="I27" t="s">
+      <c r="H27" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="I27" s="2">
+        <v>14.2</v>
+      </c>
+      <c r="J27" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="M27" t="s">
         <v>26</v>
       </c>
-      <c r="J27" t="s">
+      <c r="N27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:14">
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -990,21 +1151,34 @@
         <v>1430</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" ref="F28:G28" si="10">F26*F27</f>
+        <f t="shared" ref="F28:J28" si="10">F26*F27</f>
         <v>1440</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" si="10"/>
         <v>1410</v>
       </c>
-      <c r="I28" t="s">
+      <c r="H28" s="3">
+        <f t="shared" si="10"/>
+        <v>1360</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="10"/>
+        <v>1420</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="10"/>
+        <v>1210</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="M28" t="s">
         <v>27</v>
       </c>
-      <c r="J28" t="s">
+      <c r="N28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:14">
       <c r="B29" t="s">
         <v>10</v>
       </c>
@@ -1023,14 +1197,24 @@
       <c r="G29" s="2">
         <v>5342</v>
       </c>
-      <c r="I29" t="s">
+      <c r="H29" s="2">
+        <v>5819</v>
+      </c>
+      <c r="I29" s="2">
+        <v>5579</v>
+      </c>
+      <c r="J29" s="2">
+        <v>5349</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="M29" t="s">
         <v>28</v>
       </c>
-      <c r="J29" t="s">
+      <c r="N29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:14">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -1043,7 +1227,7 @@
         <v>58.83</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E30:G30" si="11">E29/E26</f>
+        <f t="shared" ref="E30:J30" si="11">E29/E26</f>
         <v>88.79</v>
       </c>
       <c r="F30">
@@ -1054,71 +1238,118 @@
         <f t="shared" si="11"/>
         <v>53.42</v>
       </c>
-      <c r="I30" t="s">
+      <c r="H30" s="2">
+        <f t="shared" si="11"/>
+        <v>58.19</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="11"/>
+        <v>55.79</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="11"/>
+        <v>53.49</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="M30" t="s">
         <v>30</v>
       </c>
-      <c r="J30" t="s">
+      <c r="N30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
+    <row r="31" spans="2:14">
+      <c r="M31" t="s">
+        <v>42</v>
+      </c>
+      <c r="N31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14">
       <c r="C32" t="s">
         <v>34</v>
       </c>
       <c r="D32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="2:4">
+      <c r="M32" t="s">
+        <v>43</v>
+      </c>
+      <c r="N32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14">
       <c r="C33" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="2:4">
+      <c r="M33" t="s">
+        <v>45</v>
+      </c>
+      <c r="N33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
       <c r="B34" t="s">
         <v>2</v>
       </c>
-      <c r="C34" t="s">
-        <v>36</v>
+      <c r="C34">
+        <v>100</v>
       </c>
       <c r="D34" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:14">
       <c r="B35" t="s">
         <v>3</v>
       </c>
+      <c r="C35">
+        <v>15.4</v>
+      </c>
       <c r="D35" s="2">
         <v>11.8</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:14">
       <c r="B36" t="s">
         <v>16</v>
       </c>
+      <c r="C36" s="3">
+        <f t="shared" ref="C36:D36" si="12">C34*C35</f>
+        <v>1540</v>
+      </c>
       <c r="D36" s="3">
-        <f t="shared" ref="D36" si="12">D34*D35</f>
+        <f t="shared" si="12"/>
         <v>1180</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="2:14">
       <c r="B37" t="s">
         <v>10</v>
       </c>
+      <c r="C37">
+        <v>8789</v>
+      </c>
       <c r="D37" s="2">
         <v>4912</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="2:14">
       <c r="B38" t="s">
         <v>29</v>
       </c>
+      <c r="C38" s="2">
+        <f t="shared" ref="C38:D38" si="13">C37/C34</f>
+        <v>87.89</v>
+      </c>
       <c r="D38" s="2">
-        <f t="shared" ref="D38" si="13">D37/D34</f>
+        <f t="shared" si="13"/>
         <v>49.12</v>
       </c>
     </row>

--- a/SALT/kai_test.xlsx
+++ b/SALT/kai_test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A6D0A9-205B-BF46-BC34-D05D8616B4F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690C7D27-05F0-C84A-92FE-99350C82EFCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="4560" windowWidth="25980" windowHeight="16440" xr2:uid="{B5DC76DA-EB8A-D04C-A533-CBDA1137555B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="VASP6" sheetId="1" r:id="rId1"/>
+    <sheet name="VASP5" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="67">
   <si>
     <t>kai test</t>
   </si>
@@ -163,6 +164,69 @@
   </si>
   <si>
     <t>E8</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>sigma=0.1, MAXMIX=40</t>
+  </si>
+  <si>
+    <t>Nominal:</t>
+  </si>
+  <si>
+    <t>SIGMA=0.05</t>
+  </si>
+  <si>
+    <t>NELM=200</t>
+  </si>
+  <si>
+    <t>AMIX=0.5</t>
+  </si>
+  <si>
+    <t>BMIX=0.1</t>
+  </si>
+  <si>
+    <t>NSIM=default</t>
+  </si>
+  <si>
+    <t>ALGO=VF</t>
+  </si>
+  <si>
+    <t>MAXMIX=60</t>
+  </si>
+  <si>
+    <t>NCORE=24</t>
+  </si>
+  <si>
+    <t>L_GAMMA = 5</t>
+  </si>
+  <si>
+    <t>nbands=1000</t>
+  </si>
+  <si>
+    <t>amix, bmix default</t>
+  </si>
+  <si>
+    <t>L_GAMMA=10</t>
+  </si>
+  <si>
+    <t>includes B, D, E, F, and G</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>includes B, D, E, and F</t>
+  </si>
+  <si>
+    <t>E SPIN</t>
+  </si>
+  <si>
+    <t>E ENCUT</t>
+  </si>
+  <si>
+    <t>E ENCUT2</t>
   </si>
 </sst>
 </file>
@@ -206,11 +270,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341B5BF5-C9EC-8C4C-B4D4-90635B8544FF}">
   <dimension ref="B2:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1058,6 +1124,9 @@
       <c r="J25" t="s">
         <v>45</v>
       </c>
+      <c r="K25" t="s">
+        <v>46</v>
+      </c>
       <c r="M25" t="s">
         <v>15</v>
       </c>
@@ -1090,7 +1159,9 @@
       <c r="J26" s="2">
         <v>100</v>
       </c>
-      <c r="K26" s="2"/>
+      <c r="K26" s="2">
+        <v>100</v>
+      </c>
       <c r="M26" t="s">
         <v>25</v>
       </c>
@@ -1126,7 +1197,9 @@
       <c r="J27" s="2">
         <v>12.1</v>
       </c>
-      <c r="K27" s="2"/>
+      <c r="K27" s="2">
+        <v>13.4</v>
+      </c>
       <c r="M27" t="s">
         <v>26</v>
       </c>
@@ -1151,7 +1224,7 @@
         <v>1430</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" ref="F28:J28" si="10">F26*F27</f>
+        <f t="shared" ref="F28:K28" si="10">F26*F27</f>
         <v>1440</v>
       </c>
       <c r="G28" s="3">
@@ -1170,7 +1243,10 @@
         <f t="shared" si="10"/>
         <v>1210</v>
       </c>
-      <c r="K28" s="3"/>
+      <c r="K28" s="3">
+        <f t="shared" si="10"/>
+        <v>1340</v>
+      </c>
       <c r="M28" t="s">
         <v>27</v>
       </c>
@@ -1206,7 +1282,9 @@
       <c r="J29" s="2">
         <v>5349</v>
       </c>
-      <c r="K29" s="2"/>
+      <c r="K29" s="2">
+        <v>5512</v>
+      </c>
       <c r="M29" t="s">
         <v>28</v>
       </c>
@@ -1227,7 +1305,7 @@
         <v>58.83</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E30:J30" si="11">E29/E26</f>
+        <f t="shared" ref="E30:K30" si="11">E29/E26</f>
         <v>88.79</v>
       </c>
       <c r="F30">
@@ -1250,7 +1328,10 @@
         <f t="shared" si="11"/>
         <v>53.49</v>
       </c>
-      <c r="K30" s="2"/>
+      <c r="K30" s="2">
+        <f t="shared" si="11"/>
+        <v>55.12</v>
+      </c>
       <c r="M30" t="s">
         <v>30</v>
       </c>
@@ -1273,6 +1354,12 @@
       <c r="D32" t="s">
         <v>35</v>
       </c>
+      <c r="G32">
+        <v>550</v>
+      </c>
+      <c r="H32">
+        <v>600</v>
+      </c>
       <c r="M32" t="s">
         <v>43</v>
       </c>
@@ -1287,6 +1374,15 @@
       <c r="D33" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="F33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" t="s">
+        <v>66</v>
+      </c>
       <c r="M33" t="s">
         <v>45</v>
       </c>
@@ -1304,6 +1400,21 @@
       <c r="D34" s="2">
         <v>100</v>
       </c>
+      <c r="F34">
+        <v>100</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>100</v>
+      </c>
+      <c r="M34" t="s">
+        <v>46</v>
+      </c>
+      <c r="N34" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="35" spans="2:14">
       <c r="B35" t="s">
@@ -1315,6 +1426,15 @@
       <c r="D35" s="2">
         <v>11.8</v>
       </c>
+      <c r="F35">
+        <v>15.6</v>
+      </c>
+      <c r="G35">
+        <v>14</v>
+      </c>
+      <c r="H35">
+        <v>13.6</v>
+      </c>
     </row>
     <row r="36" spans="2:14">
       <c r="B36" t="s">
@@ -1328,6 +1448,18 @@
         <f t="shared" si="12"/>
         <v>1180</v>
       </c>
+      <c r="F36" s="3">
+        <f t="shared" ref="F36:G36" si="13">F34*F35</f>
+        <v>1560</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="13"/>
+        <v>1400</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" ref="H36" si="14">H34*H35</f>
+        <v>1360</v>
+      </c>
     </row>
     <row r="37" spans="2:14">
       <c r="B37" t="s">
@@ -1339,18 +1471,393 @@
       <c r="D37" s="2">
         <v>4912</v>
       </c>
+      <c r="F37" s="2">
+        <v>9920</v>
+      </c>
+      <c r="G37" s="2">
+        <v>5889</v>
+      </c>
+      <c r="H37" s="2">
+        <v>5744</v>
+      </c>
     </row>
     <row r="38" spans="2:14">
       <c r="B38" t="s">
         <v>29</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" ref="C38:D38" si="13">C37/C34</f>
+        <f t="shared" ref="C38:D38" si="15">C37/C34</f>
         <v>87.89</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>49.12</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" ref="F38:G38" si="16">F37/F34</f>
+        <v>99.2</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="16"/>
+        <v>58.89</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" ref="H38" si="17">H37/H34</f>
+        <v>57.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01F514B-501C-6F47-9148-0D94F163F2C9}">
+  <dimension ref="A2:K26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4">
+        <v>100</v>
+      </c>
+      <c r="C15" s="4">
+        <v>100</v>
+      </c>
+      <c r="D15" s="4">
+        <v>100</v>
+      </c>
+      <c r="E15" s="4">
+        <v>100</v>
+      </c>
+      <c r="F15" s="4">
+        <v>100</v>
+      </c>
+      <c r="G15" s="4">
+        <v>100</v>
+      </c>
+      <c r="H15" s="4">
+        <v>100</v>
+      </c>
+      <c r="J15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="C16" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="D16" s="4">
+        <v>14.7</v>
+      </c>
+      <c r="E16" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="F16" s="4">
+        <v>11.3</v>
+      </c>
+      <c r="G16" s="4">
+        <v>10</v>
+      </c>
+      <c r="H16" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="J16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <f>B16*B15</f>
+        <v>1180</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" ref="C17:H17" si="0">C16*C15</f>
+        <v>1160</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>1470</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>1040</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>1130</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="0"/>
+        <v>990</v>
+      </c>
+      <c r="J17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="4">
+        <v>4912</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4520</v>
+      </c>
+      <c r="D18" s="4">
+        <v>5034</v>
+      </c>
+      <c r="E18" s="4">
+        <v>4370</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4597</v>
+      </c>
+      <c r="G18" s="4">
+        <v>4361</v>
+      </c>
+      <c r="H18" s="4">
+        <v>4194</v>
+      </c>
+      <c r="J18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="4">
+        <f>B18/B15</f>
+        <v>49.12</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" ref="C19:H19" si="1">C18/C15</f>
+        <v>45.2</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="1"/>
+        <v>50.34</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>43.7</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="1"/>
+        <v>45.97</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>43.61</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="1"/>
+        <v>41.94</v>
+      </c>
+      <c r="J19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="J20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4">
+        <v>100</v>
+      </c>
+      <c r="C22" s="2">
+        <v>100</v>
+      </c>
+      <c r="J22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="4">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="5">
+        <f>B23*B22</f>
+        <v>1000</v>
+      </c>
+      <c r="C24" s="3">
+        <f>C23*C22</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="4">
+        <v>4274</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="4">
+        <f>B25/B22</f>
+        <v>42.74</v>
+      </c>
+      <c r="C26" s="2">
+        <f>C25/C22</f>
+        <v>41.3</v>
       </c>
     </row>
   </sheetData>
